--- a/test/templates/test-hyperlinks.xlsx
+++ b/test/templates/test-hyperlinks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danrusk/Experient/code/xlsx-template/test/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Systems\xlsx-template\test\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF046AF5-410D-B742-89A2-0FEE8B80225B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D669D79C-98D4-401F-B3A6-F39A2B01AD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -36,16 +36,16 @@
     <t>Plan table</t>
   </si>
   <si>
-    <t>${revision}</t>
+    <t>{email}</t>
   </si>
   <si>
-    <t>Extracted on ${extractDate}</t>
+    <t>{domain}</t>
   </si>
   <si>
-    <t>${email}</t>
+    <t>Extracted on {extractDate}</t>
   </si>
   <si>
-    <t>${domain}</t>
+    <t>{revision}</t>
   </si>
 </sst>
 </file>
@@ -55,7 +55,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -557,37 +557,37 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G10" sqref="G10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="20.25" thickBot="1">
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="2:4" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" ht="13.5" thickTop="1"/>
+    <row r="4" spans="2:4">
       <c r="B4" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,12 +596,12 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4">
       <c r="B7" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -611,7 +611,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="${table:planData.name}" xr:uid="{329575AA-F09E-CE4E-99E1-148A742DB4D2}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{348F2924-36F9-EE46-926B-4253C27898BF}"/>
+    <hyperlink ref="C7" r:id="rId2" display="${domain}" xr:uid="{348F2924-36F9-EE46-926B-4253C27898BF}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
